--- a/Documentation/CSIT327 - IM2 - Inventory Management.xlsx
+++ b/Documentation/CSIT327 - IM2 - Inventory Management.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28318"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE9774CC-9C9E-4DFE-977C-CD632C938D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AA02DFA-F8F2-469E-8698-A2FAC4CD4C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3299" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="53">
   <si>
     <t>System Name: Inventory Management</t>
   </si>
@@ -129,9 +129,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>2.3. Implementing Bulk Product Upload via CSV (not sure)</t>
-  </si>
-  <si>
     <t>2.4. Product adding, deletion, and modification</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
   </si>
   <si>
     <t>6.2. Implementing CSV Export ( Basic Python csv library )</t>
-  </si>
-  <si>
-    <t>6.3. Implementing PDF Export ( Basic Python pdf library )</t>
   </si>
   <si>
     <t>Members</t>
@@ -1200,10 +1194,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:DY45"/>
+  <dimension ref="A1:DY43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5524,14 +5518,18 @@
       <c r="A20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="12"/>
+      <c r="B20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="13">
+        <v>45569</v>
+      </c>
+      <c r="D20" s="13">
+        <v>45571</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="F20" s="12" t="s">
         <v>6</v>
       </c>
@@ -5595,7 +5593,7 @@
       <c r="Z20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AA20" s="15" t="s">
+      <c r="AA20" s="12" t="s">
         <v>6</v>
       </c>
       <c r="AB20" s="12" t="s">
@@ -5631,19 +5629,15 @@
       <c r="AL20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AM20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ20" s="12" t="s">
+      <c r="AM20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ20" s="11" t="s">
         <v>6</v>
       </c>
       <c r="AR20" s="12" t="s">
@@ -5910,7 +5904,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C21" s="13">
         <v>45569</v>
@@ -6292,10 +6286,10 @@
     </row>
     <row r="22" spans="1:129" ht="15">
       <c r="A22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="C22" s="13">
         <v>45569</v>
@@ -6680,7 +6674,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C23" s="13">
         <v>45569</v>
@@ -6921,7 +6915,7 @@
       <c r="CE23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="CF23" s="12" t="s">
+      <c r="CF23" s="28" t="s">
         <v>6</v>
       </c>
       <c r="CG23" s="12" t="s">
@@ -7065,13 +7059,13 @@
         <v>35</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" s="13">
-        <v>45569</v>
+        <v>45612</v>
       </c>
       <c r="D24" s="13">
-        <v>45571</v>
+        <v>45618</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>9</v>
@@ -7175,15 +7169,19 @@
       <c r="AL24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AM24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN24" s="20"/>
-      <c r="AO24" s="20"/>
-      <c r="AP24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ24" s="11" t="s">
+      <c r="AM24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ24" s="12" t="s">
         <v>6</v>
       </c>
       <c r="AR24" s="12" t="s">
@@ -7300,28 +7298,24 @@
       <c r="CC24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="CD24" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CE24" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CF24" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="CG24" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CH24" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CI24" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CJ24" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CK24" s="12" t="s">
+      <c r="CD24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE24" s="20"/>
+      <c r="CF24" s="20"/>
+      <c r="CG24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="CH24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="CL24" s="12" t="s">
@@ -7450,7 +7444,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C25" s="13">
         <v>45612</v>
@@ -7458,9 +7452,7 @@
       <c r="D25" s="13">
         <v>45618</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="E25" s="12"/>
       <c r="F25" s="12" t="s">
         <v>6</v>
       </c>
@@ -7569,7 +7561,7 @@
       <c r="AO25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AP25" s="15" t="s">
+      <c r="AP25" s="12" t="s">
         <v>6</v>
       </c>
       <c r="AQ25" s="12" t="s">
@@ -7689,24 +7681,28 @@
       <c r="CC25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="CD25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="CE25" s="20"/>
-      <c r="CF25" s="20"/>
-      <c r="CG25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="CH25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="CI25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="CJ25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="CK25" s="6" t="s">
+      <c r="CD25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="CH25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK25" s="12" t="s">
         <v>6</v>
       </c>
       <c r="CL25" s="12" t="s">
@@ -7832,18 +7828,20 @@
     </row>
     <row r="26" spans="1:129" ht="15">
       <c r="A26" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C26" s="13">
-        <v>45612</v>
+        <v>45590</v>
       </c>
       <c r="D26" s="13">
-        <v>45618</v>
-      </c>
-      <c r="E26" s="12"/>
+        <v>45592</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="F26" s="12" t="s">
         <v>6</v>
       </c>
@@ -8006,16 +8004,12 @@
       <c r="BG26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="BH26" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BI26" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ26" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BK26" s="12" t="s">
+      <c r="BH26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI26" s="20"/>
+      <c r="BJ26" s="20"/>
+      <c r="BK26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="BL26" s="12" t="s">
@@ -8992,13 +8986,13 @@
         <v>41</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C29" s="13">
-        <v>45590</v>
+        <v>45615</v>
       </c>
       <c r="D29" s="13">
-        <v>45592</v>
+        <v>45616</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>9</v>
@@ -9162,17 +9156,13 @@
       <c r="BF29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="BG29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BH29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="BI29" s="20"/>
-      <c r="BJ29" s="20"/>
-      <c r="BK29" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="BG29" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH29" s="29"/>
+      <c r="BI29" s="29"/>
+      <c r="BJ29" s="29"/>
+      <c r="BK29" s="29"/>
       <c r="BL29" s="12" t="s">
         <v>6</v>
       </c>
@@ -9239,16 +9229,12 @@
       <c r="CG29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="CH29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CI29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CJ29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CK29" s="12" t="s">
+      <c r="CH29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI29" s="20"/>
+      <c r="CJ29" s="20"/>
+      <c r="CK29" s="6" t="s">
         <v>6</v>
       </c>
       <c r="CL29" s="12" t="s">
@@ -9377,13 +9363,13 @@
         <v>42</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C30" s="13">
-        <v>45615</v>
+        <v>45590</v>
       </c>
       <c r="D30" s="13">
-        <v>45616</v>
+        <v>45592</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>9</v>
@@ -9544,16 +9530,24 @@
       <c r="BE30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="BF30" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG30" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="BH30" s="29"/>
-      <c r="BI30" s="29"/>
-      <c r="BJ30" s="29"/>
-      <c r="BK30" s="29"/>
+      <c r="BF30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK30" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="BL30" s="12" t="s">
         <v>6</v>
       </c>
@@ -9620,12 +9614,16 @@
       <c r="CG30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="CH30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="CI30" s="20"/>
-      <c r="CJ30" s="20"/>
-      <c r="CK30" s="6" t="s">
+      <c r="CH30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK30" s="12" t="s">
         <v>6</v>
       </c>
       <c r="CL30" s="12" t="s">
@@ -9754,10 +9752,10 @@
         <v>43</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C31" s="13">
-        <v>45590</v>
+        <v>45587</v>
       </c>
       <c r="D31" s="13">
         <v>45592</v>
@@ -9918,25 +9916,25 @@
       <c r="BD31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="BE31" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BF31" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG31" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="BH31" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="BI31" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ31" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="BK31" s="6" t="s">
+      <c r="BE31" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF31" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG31" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH31" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI31" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ31" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK31" s="24" t="s">
         <v>6</v>
       </c>
       <c r="BL31" s="12" t="s">
@@ -10140,16 +10138,16 @@
     </row>
     <row r="32" spans="1:129" ht="15">
       <c r="A32" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C32" s="13">
         <v>45587</v>
       </c>
       <c r="D32" s="13">
-        <v>45592</v>
+        <v>45587</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>9</v>
@@ -10325,7 +10323,7 @@
       <c r="BJ32" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="BK32" s="24" t="s">
+      <c r="BK32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="BL32" s="12" t="s">
@@ -10538,7 +10536,7 @@
         <v>45587</v>
       </c>
       <c r="D33" s="13">
-        <v>45587</v>
+        <v>45592</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>9</v>
@@ -10924,10 +10922,10 @@
         <v>27</v>
       </c>
       <c r="C34" s="13">
-        <v>45587</v>
+        <v>45589</v>
       </c>
       <c r="D34" s="13">
-        <v>45592</v>
+        <v>45591</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>9</v>
@@ -11085,13 +11083,13 @@
       <c r="BD34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="BE34" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="BF34" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG34" s="22" t="s">
+      <c r="BE34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG34" s="21" t="s">
         <v>6</v>
       </c>
       <c r="BH34" s="22" t="s">
@@ -11100,10 +11098,10 @@
       <c r="BI34" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="BJ34" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="BK34" s="6" t="s">
+      <c r="BJ34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK34" s="12" t="s">
         <v>6</v>
       </c>
       <c r="BL34" s="12" t="s">
@@ -11310,9 +11308,9 @@
         <v>48</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="13">
+        <v>32</v>
+      </c>
+      <c r="C35" s="26">
         <v>45589</v>
       </c>
       <c r="D35" s="13">
@@ -11699,7 +11697,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="26">
         <v>45589</v>
@@ -12088,7 +12086,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="26">
         <v>45589</v>
@@ -12472,784 +12470,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:129" ht="15">
-      <c r="A38" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="26">
-        <v>45589</v>
-      </c>
-      <c r="D38" s="13">
-        <v>45591</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="P38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="R38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="S38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="T38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="U38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="V38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="W38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="X38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AW38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AX38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BA38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BC38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BD38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BE38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BF38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG38" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="BH38" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="BI38" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="BK38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BL38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BM38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BN38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BO38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BP38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BQ38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BR38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BS38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BT38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BU38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BV38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BW38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BX38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BY38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BZ38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CA38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CB38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CC38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CD38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CE38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CF38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CG38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CH38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CI38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CJ38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CK38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CL38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CM38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CN38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CO38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CP38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CQ38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CR38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CS38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CT38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CU38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CV38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CW38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CX38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CY38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CZ38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DA38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DB38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DC38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DD38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DE38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DF38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DG38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DH38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DI38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DJ38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DK38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DL38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DM38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DN38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DO38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DP38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DQ38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DR38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DS38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DT38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DU38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DV38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DW38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DX38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DY38" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:129" ht="15">
-      <c r="A39" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="P39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="R39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="S39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="T39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="U39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="V39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="W39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="X39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AW39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AX39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BA39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BC39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BD39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BE39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BF39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BH39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BI39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BK39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BL39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BM39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BN39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BO39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BP39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BQ39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BR39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BS39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BT39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BU39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BV39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BW39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BX39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BY39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BZ39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CA39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CB39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CC39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CD39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CE39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CF39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CG39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CH39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CI39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CJ39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CK39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CL39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CM39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CN39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CO39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CP39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CQ39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CR39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CS39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CT39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CU39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CV39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CW39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CX39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CY39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="CZ39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DA39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DB39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DC39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DD39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DE39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DF39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DG39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DH39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DI39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DJ39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DK39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DL39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DM39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DN39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DO39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DP39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DQ39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DR39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DS39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DT39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DU39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DV39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DW39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DX39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="DY39" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:129">
-      <c r="H45" s="27"/>
+    <row r="43" spans="1:129">
+      <c r="H43" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13259,7 +12481,7 @@
     <mergeCell ref="CU12:DY12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E39" xr:uid="{8DE3FEDF-9B4F-4F28-8A70-1E7F2027CA9D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E37" xr:uid="{8DE3FEDF-9B4F-4F28-8A70-1E7F2027CA9D}">
       <formula1>$C$8:$C$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -13271,7 +12493,7 @@
           <x14:formula1>
             <xm:f>Setup!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B14:B39</xm:sqref>
+          <xm:sqref>B14:B37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13294,7 +12516,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
@@ -13309,22 +12531,22 @@
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
@@ -13354,12 +12576,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13675,27 +12908,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{648F31BC-5AA3-42BF-80F4-A797E59C4FBD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9066C173-72E5-4455-ACFB-9A7596D30A2B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13703,7 +12925,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9066C173-72E5-4455-ACFB-9A7596D30A2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{648F31BC-5AA3-42BF-80F4-A797E59C4FBD}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
